--- a/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_03_output.xlsx
+++ b/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_03_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,6 +373,11 @@
           <t>path</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>num.clusters</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -390,6 +395,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/03_output/all.samples/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -407,6 +415,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/03_output/remove_d4_LPS/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -424,6 +435,9 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/03_output/remove_d4_LPS_SC5/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -440,6 +454,9 @@
         <is>
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/03_output/remove_d4_LPS_SC5_SC11/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
+      </c>
+      <c r="D5">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_03_output.xlsx
+++ b/official/sampleSheets_for_DGE_and_CellChat/SampleSheet_03_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,11 +373,6 @@
           <t>path</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>num.clusters</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -395,9 +390,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/03_output/all.samples/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -415,9 +407,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/03_output/remove_d4_LPS/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="D3">
-        <v>27</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -435,9 +424,6 @@
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/03_output/remove_d4_LPS_SC5/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
       </c>
-      <c r="D4">
-        <v>24</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -454,9 +440,6 @@
         <is>
           <t>/media/hieunguyen/CRC1382H/CRC1382/outdir/EStange_20240411_reduced_RNAcontam_0/data_analysis/03_output/remove_d4_LPS_SC5_SC11/s8_output/EStange_20240411_reduced_RNAcontam_0.output.s8.rds</t>
         </is>
-      </c>
-      <c r="D5">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
